--- a/dotnet-roadmap-tracker-enhanced.xlsx
+++ b/dotnet-roadmap-tracker-enhanced.xlsx
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>15 Easy problems</t>
+          <t>15 Medium problems</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
